--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\личное-работа\дисконтирование кредитов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A31698-E4F9-4079-8DF8-001BE576EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0ABB92-73FD-47D2-9DE5-C3EBBD5A6F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="7" r:id="rId1"/>
     <sheet name="Annuity" sheetId="2" r:id="rId2"/>
     <sheet name="Differentiated" sheetId="3" r:id="rId3"/>
     <sheet name="Analysis" sheetId="8" r:id="rId4"/>
+    <sheet name="Default_Risk" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Loan Amount</t>
   </si>
@@ -124,16 +125,189 @@
   <si>
     <t>Sensitivity Analysis: Interest Rate vs Inflation</t>
   </si>
+  <si>
+    <t>Monthly Income (KZT)</t>
+  </si>
+  <si>
+    <t>Annual PD (Base, %)</t>
+  </si>
+  <si>
+    <t>PD sensitivity to DTI (alpha)</t>
+  </si>
+  <si>
+    <t>Discount rate (Annual Inflation, %)</t>
+  </si>
+  <si>
+    <t>Period t</t>
+  </si>
+  <si>
+    <t>Annuity 
+Payment</t>
+  </si>
+  <si>
+    <t>Scenario 
+(PD, DTI sensitivity)</t>
+  </si>
+  <si>
+    <t>Difference of
+EDCF (diff-ann)</t>
+  </si>
+  <si>
+    <t>PD=5%  PDDTI=0</t>
+  </si>
+  <si>
+    <t>PD=5% PDDTI=5</t>
+  </si>
+  <si>
+    <t>PD=5% PDDTI=10</t>
+  </si>
+  <si>
+    <t>PD=5% PDDTI=15</t>
+  </si>
+  <si>
+    <t>PD=5% PDDTI=40</t>
+  </si>
+  <si>
+    <t>PD=10% PDDTI=5</t>
+  </si>
+  <si>
+    <t>PD=15% PDDTI=5</t>
+  </si>
+  <si>
+    <t>PD=20% PDDTI=5</t>
+  </si>
+  <si>
+    <t>PD=10% PDDTI=10</t>
+  </si>
+  <si>
+    <t>PD=15% PDDTI=15</t>
+  </si>
+  <si>
+    <t>PD=20% PDDTI=20</t>
+  </si>
+  <si>
+    <t>PD=30% PDDTI=30</t>
+  </si>
+  <si>
+    <t>Survival Probability 
+(Annuity)</t>
+  </si>
+  <si>
+    <t>Survival Probability 
+(Differentiated)</t>
+  </si>
+  <si>
+    <t>Differentiated
+Payment</t>
+  </si>
+  <si>
+    <t>Expected DCF 
+(Annuity)</t>
+  </si>
+  <si>
+    <t>Expected DCF 
+(Differentiated)</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>DTI</t>
+  </si>
+  <si>
+    <t>Sₜ</t>
+  </si>
+  <si>
+    <t>EDCF</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>DTI
+(Annuity)</t>
+  </si>
+  <si>
+    <t>PD
+(Annuity)</t>
+  </si>
+  <si>
+    <t>DTI
+(Differentiated)</t>
+  </si>
+  <si>
+    <t>PD
+(Differentiated)</t>
+  </si>
+  <si>
+    <t>PD sensitivity to DTI</t>
+  </si>
+  <si>
+    <r>
+      <t>Expected discounted cash flow (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Payment × Sₜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Survival probability up to period </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>Debt-to-Income ratio (payment / income)</t>
+  </si>
+  <si>
+    <t>Probability of default 
+(annual, converted to monthly)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +343,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +366,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -505,12 +693,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -635,31 +849,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -681,8 +870,53 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,25 +928,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,7 +1276,7 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,13 +1357,13 @@
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="27" t="s">
@@ -2698,13 +2976,13 @@
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:14" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="24" t="s">
@@ -4293,10 +4571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95402366-0DA2-487E-B557-E55AADC13B45}">
-  <dimension ref="D4:Q79"/>
+  <dimension ref="D4:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4314,28 +4592,26 @@
     <col min="15" max="15" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="4:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="51" t="s">
+    <row r="4" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-      <c r="J5" s="63" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="J5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="N5" s="71" t="s">
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="N5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-    </row>
-    <row r="6" spans="4:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="39" t="s">
         <v>5</v>
       </c>
@@ -4351,25 +4627,25 @@
       <c r="H6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="67" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="51">
         <f>E79</f>
         <v>8116886.061371238</v>
       </c>
       <c r="M6" s="42"/>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="50">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D7" s="18">
         <v>1</v>
       </c>
@@ -4389,23 +4665,23 @@
         <f>G7/((1+INPUT!$C$6/1200)^D7)</f>
         <v>125344.3526170799</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="51">
         <f>G79</f>
         <v>8064583.333333333</v>
       </c>
       <c r="M7" s="43"/>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="60">
+      <c r="O7" s="51">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D8" s="16">
         <v>2</v>
       </c>
@@ -4425,24 +4701,24 @@
         <f>G8/((1+INPUT!$C$6/1200)^D8)</f>
         <v>123910.02436081324</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="67" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="51">
         <f>F79</f>
         <v>6085259.4087593257</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="51">
         <v>-66364</v>
       </c>
     </row>
-    <row r="9" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="16">
         <v>3</v>
       </c>
@@ -4462,22 +4738,22 @@
         <f>G9/((1+INPUT!$C$6/1200)^D9)</f>
         <v>122490.84282166972</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="51">
         <f>H79</f>
         <v>6123962.9051857842</v>
       </c>
-      <c r="N9" s="58" t="s">
+      <c r="N9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="52">
         <v>207856</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="16">
         <v>4</v>
       </c>
@@ -4497,17 +4773,17 @@
         <f>G10/((1+INPUT!$C$6/1200)^D10)</f>
         <v>121086.65560723843</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="60">
+      <c r="K10" s="73"/>
+      <c r="L10" s="51">
         <f>L6-L7</f>
         <v>52302.728037904948</v>
       </c>
-      <c r="N10" s="55"/>
-    </row>
-    <row r="11" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="16">
         <v>5</v>
       </c>
@@ -4527,22 +4803,22 @@
         <f>G11/((1+INPUT!$C$6/1200)^D11)</f>
         <v>119697.31180945017</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="61">
+      <c r="K11" s="63"/>
+      <c r="L11" s="52">
         <f>L8-L9</f>
         <v>-38703.496426458471</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D12" s="16">
         <v>6</v>
       </c>
@@ -4562,14 +4838,14 @@
         <f>G12/((1+INPUT!$C$6/1200)^D12)</f>
         <v>118322.66199045144</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="51">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D13" s="16">
         <v>7</v>
       </c>
@@ -4589,14 +4865,14 @@
         <f>G13/((1+INPUT!$C$6/1200)^D13)</f>
         <v>116962.55816861059</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="51">
         <v>-24691</v>
       </c>
     </row>
-    <row r="14" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="16">
         <v>8</v>
       </c>
@@ -4616,14 +4892,14 @@
         <f>G14/((1+INPUT!$C$6/1200)^D14)</f>
         <v>115616.85380465475</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="52">
         <v>18863</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="16">
         <v>9</v>
       </c>
@@ -4643,11 +4919,9 @@
         <f>G15/((1+INPUT!$C$6/1200)^D15)</f>
         <v>114285.40378793675</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="N15" s="55"/>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D16" s="16">
         <v>10</v>
       </c>
@@ -4667,10 +4941,10 @@
         <f>G16/((1+INPUT!$C$6/1200)^D16)</f>
         <v>112968.06442283004</v>
       </c>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="50">
         <v>5</v>
       </c>
     </row>
@@ -4694,10 +4968,10 @@
         <f>G17/((1+INPUT!$C$6/1200)^D17)</f>
         <v>111664.69341525139</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="51">
         <v>5</v>
       </c>
     </row>
@@ -4721,10 +4995,10 @@
         <f>G18/((1+INPUT!$C$6/1200)^D18)</f>
         <v>110375.14985930927</v>
       </c>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4748,10 +5022,10 @@
         <f>G19/((1+INPUT!$C$6/1200)^D19)</f>
         <v>109099.29422407773</v>
       </c>
-      <c r="N19" s="58" t="s">
+      <c r="N19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="52">
         <v>52303</v>
       </c>
     </row>
@@ -4775,7 +5049,7 @@
         <f>G20/((1+INPUT!$C$6/1200)^D20)</f>
         <v>107836.98834049335</v>
       </c>
-      <c r="N20" s="55"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D21" s="16">
@@ -4797,10 +5071,10 @@
         <f>G21/((1+INPUT!$C$6/1200)^D21)</f>
         <v>106588.09538837563</v>
       </c>
-      <c r="N21" s="56" t="s">
+      <c r="N21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="50">
         <v>8</v>
       </c>
     </row>
@@ -4824,10 +5098,10 @@
         <f>G22/((1+INPUT!$C$6/1200)^D22)</f>
         <v>105352.47988356836</v>
       </c>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="51">
         <v>3</v>
       </c>
     </row>
@@ -4851,10 +5125,10 @@
         <f>G23/((1+INPUT!$C$6/1200)^D23)</f>
         <v>104130.00766520156</v>
       </c>
-      <c r="N23" s="57" t="s">
+      <c r="N23" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="51">
         <v>75982</v>
       </c>
     </row>
@@ -4878,10 +5152,10 @@
         <f>G24/((1+INPUT!$C$6/1200)^D24)</f>
         <v>102920.54588307279</v>
       </c>
-      <c r="N24" s="58" t="s">
+      <c r="N24" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="62">
+      <c r="O24" s="52">
         <v>133420</v>
       </c>
     </row>
@@ -4905,7 +5179,7 @@
         <f>G25/((1+INPUT!$C$6/1200)^D25)</f>
         <v>101723.9629851466</v>
       </c>
-      <c r="N25" s="55"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D26" s="16">
@@ -4927,10 +5201,10 @@
         <f>G26/((1+INPUT!$C$6/1200)^D26)</f>
         <v>100540.12870517105</v>
       </c>
-      <c r="N26" s="56" t="s">
+      <c r="N26" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="50">
         <v>15</v>
       </c>
     </row>
@@ -4954,10 +5228,10 @@
         <f>G27/((1+INPUT!$C$6/1200)^D27)</f>
         <v>99368.91405041024</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="60">
+      <c r="O27" s="51">
         <v>10</v>
       </c>
     </row>
@@ -4981,10 +5255,10 @@
         <f>G28/((1+INPUT!$C$6/1200)^D28)</f>
         <v>98210.191289491806</v>
       </c>
-      <c r="N28" s="57" t="s">
+      <c r="N28" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="60">
+      <c r="O28" s="51">
         <v>113620</v>
       </c>
     </row>
@@ -5008,10 +5282,10 @@
         <f>G29/((1+INPUT!$C$6/1200)^D29)</f>
         <v>97063.83394036851</v>
       </c>
-      <c r="N29" s="58" t="s">
+      <c r="N29" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="62">
+      <c r="O29" s="52">
         <v>463337</v>
       </c>
     </row>
@@ -6076,5 +6350,3494 @@
     <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F2777-3DF1-4318-93C8-1A23800E309C}">
+  <dimension ref="C3:Q77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:16" ht="45.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="76">
+        <v>300000</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="77">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <f>Analysis!E7</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H5" s="19">
+        <f>Analysis!G7</f>
+        <v>126388.88888888889</v>
+      </c>
+      <c r="I5" s="82">
+        <f>G5/$D$4</f>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J5" s="82">
+        <f>H5/$D$4</f>
+        <v>0.42129629629629628</v>
+      </c>
+      <c r="K5" s="83">
+        <f>(($D$5/1200)*(1+$D$6*I5))*100</f>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L5" s="83">
+        <f>(($D$5/1200)*(1+$D$6*J5))*100</f>
+        <v>1.2943672839506173</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1</v>
+      </c>
+      <c r="O5" s="84">
+        <f>Analysis!F7*Default_Risk!M5</f>
+        <v>111802.83831089865</v>
+      </c>
+      <c r="P5" s="84">
+        <f>Analysis!H7*Default_Risk!N5</f>
+        <v>125344.3526170799</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C6" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="77">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17">
+        <f>Analysis!E8</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H6" s="17">
+        <f>Analysis!G8</f>
+        <v>125983.79629629629</v>
+      </c>
+      <c r="I6" s="85">
+        <f t="shared" ref="I6:J69" si="0">G6/$D$4</f>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J6" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41994598765432095</v>
+      </c>
+      <c r="K6" s="86">
+        <f t="shared" ref="K6:L69" si="1">(($D$5/1200)*(1+$D$6*I6))*100</f>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L6" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2915541409465021</v>
+      </c>
+      <c r="M6" s="86">
+        <f>M5*(1-K5/100)</f>
+        <v>0.98800454662290582</v>
+      </c>
+      <c r="N6" s="86">
+        <f>N5*(1-L5/100)</f>
+        <v>0.98705632716049385</v>
+      </c>
+      <c r="O6" s="14">
+        <f>Analysis!F8*Default_Risk!M6</f>
+        <v>109548.80586100509</v>
+      </c>
+      <c r="P6" s="14">
+        <f>Analysis!H8*Default_Risk!N6</f>
+        <v>122306.17354395163</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="78">
+        <f>INPUT!C6</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17">
+        <f>Analysis!E9</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H7" s="17">
+        <f>Analysis!G9</f>
+        <v>125578.70370370371</v>
+      </c>
+      <c r="I7" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J7" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41859567901234568</v>
+      </c>
+      <c r="K7" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L7" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2887409979423867</v>
+      </c>
+      <c r="M7" s="86">
+        <f t="shared" ref="M7:N70" si="2">M6*(1-K6/100)</f>
+        <v>0.97615298414753371</v>
+      </c>
+      <c r="N7" s="86">
+        <f t="shared" si="2"/>
+        <v>0.97430796029357802</v>
+      </c>
+      <c r="O7" s="14">
+        <f>Analysis!F9*Default_Risk!M7</f>
+        <v>107340.2164639171</v>
+      </c>
+      <c r="P7" s="14">
+        <f>Analysis!H9*Default_Risk!N7</f>
+        <v>119343.80322422228</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="16">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17">
+        <f>Analysis!E10</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H8" s="17">
+        <f>Analysis!G10</f>
+        <v>125173.61111111111</v>
+      </c>
+      <c r="I8" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J8" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41724537037037035</v>
+      </c>
+      <c r="K8" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L8" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2859278549382716</v>
+      </c>
+      <c r="M8" s="86">
+        <f t="shared" si="2"/>
+        <v>0.96444358653728057</v>
+      </c>
+      <c r="N8" s="86">
+        <f t="shared" si="2"/>
+        <v>0.96175165416305852</v>
+      </c>
+      <c r="O8" s="14">
+        <f>Analysis!F10*Default_Risk!M8</f>
+        <v>105176.15395223502</v>
+      </c>
+      <c r="P8" s="14">
+        <f>Analysis!H10*Default_Risk!N8</f>
+        <v>116455.29132733414</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17">
+        <f>Analysis!E11</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H9" s="17">
+        <f>Analysis!G11</f>
+        <v>124768.51851851851</v>
+      </c>
+      <c r="I9" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J9" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41589506172839502</v>
+      </c>
+      <c r="K9" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L9" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2831147119341562</v>
+      </c>
+      <c r="M9" s="86">
+        <f t="shared" si="2"/>
+        <v>0.95287464846013514</v>
+      </c>
+      <c r="N9" s="86">
+        <f t="shared" si="2"/>
+        <v>0.94938422174684611</v>
+      </c>
+      <c r="O9" s="14">
+        <f>Analysis!F11*Default_Risk!M9</f>
+        <v>103055.72062920884</v>
+      </c>
+      <c r="P9" s="14">
+        <f>Analysis!H11*Default_Risk!N9</f>
+        <v>113638.73921740442</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="C10" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="16">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17">
+        <f>Analysis!E12</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H10" s="17">
+        <f>Analysis!G12</f>
+        <v>124363.42592592593</v>
+      </c>
+      <c r="I10" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J10" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41454475308641975</v>
+      </c>
+      <c r="K10" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L10" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2803015689300412</v>
+      </c>
+      <c r="M10" s="86">
+        <f t="shared" si="2"/>
+        <v>0.94144448504031664</v>
+      </c>
+      <c r="N10" s="86">
+        <f t="shared" si="2"/>
+        <v>0.93720253312483082</v>
+      </c>
+      <c r="O10" s="14">
+        <f>Analysis!F12*Default_Risk!M10</f>
+        <v>100978.03689635536</v>
+      </c>
+      <c r="P10" s="14">
+        <f>Analysis!H12*Default_Risk!N10</f>
+        <v>110892.29854352423</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="16">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17">
+        <f>Analysis!E13</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H11" s="17">
+        <f>Analysis!G13</f>
+        <v>123958.33333333333</v>
+      </c>
+      <c r="I11" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J11" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="K11" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L11" s="86">
+        <f t="shared" si="1"/>
+        <v>1.277488425925926</v>
+      </c>
+      <c r="M11" s="86">
+        <f t="shared" si="2"/>
+        <v>0.93015143161289304</v>
+      </c>
+      <c r="N11" s="86">
+        <f t="shared" si="2"/>
+        <v>0.92520351438918147</v>
+      </c>
+      <c r="O11" s="14">
+        <f>Analysis!F13*Default_Risk!M11</f>
+        <v>98942.240888583125</v>
+      </c>
+      <c r="P11" s="14">
+        <f>Analysis!H13*Default_Risk!N11</f>
+        <v>108214.16986954758</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="16">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17">
+        <f>Analysis!E14</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H12" s="17">
+        <f>Analysis!G14</f>
+        <v>123553.24074074073</v>
+      </c>
+      <c r="I12" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J12" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41184413580246909</v>
+      </c>
+      <c r="K12" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L12" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2746752829218106</v>
+      </c>
+      <c r="M12" s="86">
+        <f t="shared" si="2"/>
+        <v>0.91899384348134316</v>
+      </c>
+      <c r="N12" s="86">
+        <f t="shared" si="2"/>
+        <v>0.91338414657659983</v>
+      </c>
+      <c r="O12" s="14">
+        <f>Analysis!F14*Default_Risk!M12</f>
+        <v>96947.488116673281</v>
+      </c>
+      <c r="P12" s="14">
+        <f>Analysis!H14*Default_Risk!N12</f>
+        <v>105602.60134223608</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="C13" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="16">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17">
+        <f>Analysis!E15</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H13" s="17">
+        <f>Analysis!G15</f>
+        <v>123148.14814814815</v>
+      </c>
+      <c r="I13" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J13" s="85">
+        <f t="shared" si="0"/>
+        <v>0.41049382716049382</v>
+      </c>
+      <c r="K13" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L13" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2718621399176955</v>
+      </c>
+      <c r="M13" s="86">
+        <f t="shared" si="2"/>
+        <v>0.90797009567802611</v>
+      </c>
+      <c r="N13" s="86">
+        <f t="shared" si="2"/>
+        <v>0.90174146462206162</v>
+      </c>
+      <c r="O13" s="14">
+        <f>Analysis!F15*Default_Risk!M13</f>
+        <v>94992.951116968601</v>
+      </c>
+      <c r="P13" s="14">
+        <f>Analysis!H15*Default_Risk!N13</f>
+        <v>103055.8873966578</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="16">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17">
+        <f>Analysis!E16</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H14" s="17">
+        <f>Analysis!G16</f>
+        <v>122743.05555555555</v>
+      </c>
+      <c r="I14" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J14" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40914351851851849</v>
+      </c>
+      <c r="K14" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L14" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2690489969135803</v>
+      </c>
+      <c r="M14" s="86">
+        <f t="shared" si="2"/>
+        <v>0.89707858272752461</v>
+      </c>
+      <c r="N14" s="86">
+        <f t="shared" si="2"/>
+        <v>0.89027255633359426</v>
+      </c>
+      <c r="O14" s="14">
+        <f>Analysis!F16*Default_Risk!M14</f>
+        <v>93077.819108124721</v>
+      </c>
+      <c r="P14" s="14">
+        <f>Analysis!H16*Default_Risk!N14</f>
+        <v>100572.36749777106</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="16">
+        <v>11</v>
+      </c>
+      <c r="G15" s="17">
+        <f>Analysis!E17</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H15" s="17">
+        <f>Analysis!G17</f>
+        <v>122337.96296296296</v>
+      </c>
+      <c r="I15" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J15" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40779320987654322</v>
+      </c>
+      <c r="K15" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L15" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2662358539094649</v>
+      </c>
+      <c r="M15" s="86">
+        <f t="shared" si="2"/>
+        <v>0.88631771841282692</v>
+      </c>
+      <c r="N15" s="86">
+        <f t="shared" si="2"/>
+        <v>0.87897456138764585</v>
+      </c>
+      <c r="O15" s="14">
+        <f>Analysis!F17*Default_Risk!M15</f>
+        <v>91201.297654781752</v>
+      </c>
+      <c r="P15" s="14">
+        <f>Analysis!H17*Default_Risk!N15</f>
+        <v>98150.424917156532</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="16">
+        <v>12</v>
+      </c>
+      <c r="G16" s="17">
+        <f>Analysis!E18</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H16" s="17">
+        <f>Analysis!G18</f>
+        <v>121932.87037037036</v>
+      </c>
+      <c r="I16" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J16" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40644290123456789</v>
+      </c>
+      <c r="K16" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L16" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2634227109053497</v>
+      </c>
+      <c r="M16" s="86">
+        <f t="shared" si="2"/>
+        <v>0.8756859355443134</v>
+      </c>
+      <c r="N16" s="86">
+        <f t="shared" si="2"/>
+        <v>0.86784467034461199</v>
+      </c>
+      <c r="O16" s="14">
+        <f>Analysis!F18*Default_Risk!M16</f>
+        <v>89362.608338016536</v>
+      </c>
+      <c r="P16" s="14">
+        <f>Analysis!H18*Default_Risk!N16</f>
+        <v>95788.485543889401</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="84">
+        <f>5412858-5345183</f>
+        <v>67675</v>
+      </c>
+      <c r="F17" s="16">
+        <v>13</v>
+      </c>
+      <c r="G17" s="17">
+        <f>Analysis!E19</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H17" s="17">
+        <f>Analysis!G19</f>
+        <v>121527.77777777778</v>
+      </c>
+      <c r="I17" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40509259259259262</v>
+      </c>
+      <c r="K17" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L17" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2606095679012346</v>
+      </c>
+      <c r="M17" s="86">
+        <f t="shared" si="2"/>
+        <v>0.86518168573151444</v>
+      </c>
+      <c r="N17" s="86">
+        <f t="shared" si="2"/>
+        <v>0.8568801236840965</v>
+      </c>
+      <c r="O17" s="14">
+        <f>Analysis!F19*Default_Risk!M17</f>
+        <v>87560.98843243868</v>
+      </c>
+      <c r="P17" s="14">
+        <f>Analysis!H19*Default_Risk!N17</f>
+        <v>93485.016728575356</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="14">
+        <f>4323975-4265907</f>
+        <v>58068</v>
+      </c>
+      <c r="F18" s="16">
+        <v>14</v>
+      </c>
+      <c r="G18" s="17">
+        <f>Analysis!E20</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H18" s="17">
+        <f>Analysis!G20</f>
+        <v>121122.68518518518</v>
+      </c>
+      <c r="I18" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J18" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40374228395061729</v>
+      </c>
+      <c r="K18" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L18" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2577964248971194</v>
+      </c>
+      <c r="M18" s="86">
+        <f t="shared" si="2"/>
+        <v>0.85480343915760626</v>
+      </c>
+      <c r="N18" s="86">
+        <f t="shared" si="2"/>
+        <v>0.84607821085949075</v>
+      </c>
+      <c r="O18" s="14">
+        <f>Analysis!F20*Default_Risk!M18</f>
+        <v>85795.690589796766</v>
+      </c>
+      <c r="P18" s="14">
+        <f>Analysis!H20*Default_Risk!N18</f>
+        <v>91238.526159600384</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="14">
+        <f>3531869-3482687</f>
+        <v>49182</v>
+      </c>
+      <c r="F19" s="16">
+        <v>15</v>
+      </c>
+      <c r="G19" s="17">
+        <f>Analysis!E21</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H19" s="17">
+        <f>Analysis!G21</f>
+        <v>120717.59259259258</v>
+      </c>
+      <c r="I19" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J19" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40239197530864196</v>
+      </c>
+      <c r="K19" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L19" s="86">
+        <f t="shared" si="1"/>
+        <v>1.254983281893004</v>
+      </c>
+      <c r="M19" s="86">
+        <f t="shared" si="2"/>
+        <v>0.84454968435661149</v>
+      </c>
+      <c r="N19" s="86">
+        <f t="shared" si="2"/>
+        <v>0.83543626937146653</v>
+      </c>
+      <c r="O19" s="14">
+        <f>Analysis!F21*Default_Risk!M19</f>
+        <v>84065.982528963243</v>
+      </c>
+      <c r="P19" s="14">
+        <f>Analysis!H21*Default_Risk!N19</f>
+        <v>89047.56077067455</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="14">
+        <f>2945277-2903850</f>
+        <v>41427</v>
+      </c>
+      <c r="F20" s="16">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17">
+        <f>Analysis!E22</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H20" s="17">
+        <f>Analysis!G22</f>
+        <v>120312.5</v>
+      </c>
+      <c r="I20" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J20" s="85">
+        <f t="shared" si="0"/>
+        <v>0.40104166666666669</v>
+      </c>
+      <c r="K20" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L20" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2521701388888888</v>
+      </c>
+      <c r="M20" s="86">
+        <f t="shared" si="2"/>
+        <v>0.83441892799327211</v>
+      </c>
+      <c r="N20" s="86">
+        <f t="shared" si="2"/>
+        <v>0.82495168385998396</v>
+      </c>
+      <c r="O20" s="14">
+        <f>Analysis!F22*Default_Risk!M20</f>
+        <v>82371.146732169378</v>
+      </c>
+      <c r="P20" s="14">
+        <f>Analysis!H22*Default_Risk!N20</f>
+        <v>86910.705678774801</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14">
+        <f>1513094-1494831</f>
+        <v>18263</v>
+      </c>
+      <c r="F21" s="16">
+        <v>17</v>
+      </c>
+      <c r="G21" s="17">
+        <f>Analysis!E23</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H21" s="17">
+        <f>Analysis!G23</f>
+        <v>119907.4074074074</v>
+      </c>
+      <c r="I21" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J21" s="85">
+        <f t="shared" si="0"/>
+        <v>0.39969135802469136</v>
+      </c>
+      <c r="K21" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L21" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2493569958847737</v>
+      </c>
+      <c r="M21" s="86">
+        <f t="shared" si="2"/>
+        <v>0.82440969464556391</v>
+      </c>
+      <c r="N21" s="86">
+        <f t="shared" si="2"/>
+        <v>0.81462188521442824</v>
+      </c>
+      <c r="O21" s="14">
+        <f>Analysis!F23*Default_Risk!M21</f>
+        <v>80710.480147364491</v>
+      </c>
+      <c r="P21" s="14">
+        <f>Analysis!H23*Default_Risk!N21</f>
+        <v>84826.583151619358</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="F22" s="16">
+        <v>18</v>
+      </c>
+      <c r="G22" s="17">
+        <f>Analysis!E24</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H22" s="17">
+        <f>Analysis!G24</f>
+        <v>119502.31481481482</v>
+      </c>
+      <c r="I22" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J22" s="85">
+        <f t="shared" si="0"/>
+        <v>0.39834104938271608</v>
+      </c>
+      <c r="K22" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L22" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2465438528806585</v>
+      </c>
+      <c r="M22" s="86">
+        <f t="shared" si="2"/>
+        <v>0.81452052658981855</v>
+      </c>
+      <c r="N22" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80444434970149337</v>
+      </c>
+      <c r="O22" s="14">
+        <f>Analysis!F24*Default_Risk!M22</f>
+        <v>79083.293896575749</v>
+      </c>
+      <c r="P22" s="14">
+        <f>Analysis!H24*Default_Risk!N22</f>
+        <v>82793.851603831194</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="14">
+        <f>3215430-3153644</f>
+        <v>61786</v>
+      </c>
+      <c r="F23" s="16">
+        <v>19</v>
+      </c>
+      <c r="G23" s="17">
+        <f>Analysis!E25</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H23" s="17">
+        <f>Analysis!G25</f>
+        <v>119097.22222222222</v>
+      </c>
+      <c r="I23" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J23" s="85">
+        <f t="shared" si="0"/>
+        <v>0.39699074074074076</v>
+      </c>
+      <c r="K23" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L23" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2437307098765431</v>
+      </c>
+      <c r="M23" s="86">
+        <f t="shared" si="2"/>
+        <v>0.8047499835884242</v>
+      </c>
+      <c r="N23" s="86">
+        <f t="shared" si="2"/>
+        <v>0.79441659811044363</v>
+      </c>
+      <c r="O23" s="14">
+        <f>Analysis!F25*Default_Risk!M23</f>
+        <v>77488.912990147786</v>
+      </c>
+      <c r="P23" s="14">
+        <f>Analysis!H25*Default_Risk!N23</f>
+        <v>80811.204620972858</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="14">
+        <f>2502955-2443678</f>
+        <v>59277</v>
+      </c>
+      <c r="F24" s="16">
+        <v>20</v>
+      </c>
+      <c r="G24" s="17">
+        <f>Analysis!E26</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H24" s="17">
+        <f>Analysis!G26</f>
+        <v>118692.12962962962</v>
+      </c>
+      <c r="I24" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J24" s="85">
+        <f t="shared" si="0"/>
+        <v>0.39564043209876543</v>
+      </c>
+      <c r="K24" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L24" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2409175668724279</v>
+      </c>
+      <c r="M24" s="86">
+        <f t="shared" si="2"/>
+        <v>0.79509664268007196</v>
+      </c>
+      <c r="N24" s="86">
+        <f t="shared" si="2"/>
+        <v>0.78453619491538751</v>
+      </c>
+      <c r="O24" s="14">
+        <f>Analysis!F26*Default_Risk!M24</f>
+        <v>75926.676046743247</v>
+      </c>
+      <c r="P24" s="14">
+        <f>Analysis!H26*Default_Risk!N24</f>
+        <v>78877.370010658226</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="14">
+        <f>2024582-1969907</f>
+        <v>54675</v>
+      </c>
+      <c r="F25" s="16">
+        <v>21</v>
+      </c>
+      <c r="G25" s="17">
+        <f>Analysis!E27</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H25" s="17">
+        <f>Analysis!G27</f>
+        <v>118287.03703703704</v>
+      </c>
+      <c r="I25" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J25" s="85">
+        <f t="shared" si="0"/>
+        <v>0.3942901234567901</v>
+      </c>
+      <c r="K25" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L25" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2381044238683128</v>
+      </c>
+      <c r="M25" s="86">
+        <f t="shared" si="2"/>
+        <v>0.7855590979725191</v>
+      </c>
+      <c r="N25" s="86">
+        <f t="shared" si="2"/>
+        <v>0.77480074745421001</v>
+      </c>
+      <c r="O25" s="14">
+        <f>Analysis!F27*Default_Risk!M25</f>
+        <v>74395.935018988574</v>
+      </c>
+      <c r="P25" s="14">
+        <f>Analysis!H27*Default_Risk!N25</f>
+        <v>76991.108879971012</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="F26" s="16">
+        <v>22</v>
+      </c>
+      <c r="G26" s="17">
+        <f>Analysis!E28</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H26" s="17">
+        <f>Analysis!G28</f>
+        <v>117881.94444444444</v>
+      </c>
+      <c r="I26" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J26" s="85">
+        <f t="shared" si="0"/>
+        <v>0.39293981481481477</v>
+      </c>
+      <c r="K26" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L26" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2352912808641976</v>
+      </c>
+      <c r="M26" s="86">
+        <f t="shared" si="2"/>
+        <v>0.77613596043783761</v>
+      </c>
+      <c r="N26" s="86">
+        <f t="shared" si="2"/>
+        <v>0.76520790512381465</v>
+      </c>
+      <c r="O26" s="14">
+        <f>Analysis!F28*Default_Risk!M26</f>
+        <v>72896.05492465086</v>
+      </c>
+      <c r="P26" s="14">
+        <f>Analysis!H28*Default_Risk!N26</f>
+        <v>75151.214738441136</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="14">
+        <f>2322444-2279306</f>
+        <v>43138</v>
+      </c>
+      <c r="F27" s="16">
+        <v>23</v>
+      </c>
+      <c r="G27" s="17">
+        <f>Analysis!E29</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H27" s="17">
+        <f>Analysis!G29</f>
+        <v>117476.85185185185</v>
+      </c>
+      <c r="I27" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J27" s="85">
+        <f t="shared" si="0"/>
+        <v>0.3915895061728395</v>
+      </c>
+      <c r="K27" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L27" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2324781378600822</v>
+      </c>
+      <c r="M27" s="86">
+        <f t="shared" si="2"/>
+        <v>0.76682585771011935</v>
+      </c>
+      <c r="N27" s="86">
+        <f t="shared" si="2"/>
+        <v>0.75575535859133658</v>
+      </c>
+      <c r="O27" s="14">
+        <f>Analysis!F29*Default_Risk!M27</f>
+        <v>71426.41358323452</v>
+      </c>
+      <c r="P27" s="14">
+        <f>Analysis!H29*Default_Risk!N27</f>
+        <v>73356.512625853153</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="14">
+        <f>1256409-1233542</f>
+        <v>22867</v>
+      </c>
+      <c r="F28" s="16">
+        <v>24</v>
+      </c>
+      <c r="G28" s="17">
+        <f>Analysis!E30</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H28" s="17">
+        <f>Analysis!G30</f>
+        <v>117071.75925925926</v>
+      </c>
+      <c r="I28" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J28" s="85">
+        <f t="shared" si="0"/>
+        <v>0.39023919753086417</v>
+      </c>
+      <c r="K28" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L28" s="86">
+        <f t="shared" si="1"/>
+        <v>1.229664994855967</v>
+      </c>
+      <c r="M28" s="86">
+        <f t="shared" si="2"/>
+        <v>0.75762743388560738</v>
+      </c>
+      <c r="N28" s="86">
+        <f t="shared" si="2"/>
+        <v>0.74644083902099223</v>
+      </c>
+      <c r="O28" s="14">
+        <f>Analysis!F30*Default_Risk!M28</f>
+        <v>69986.40135788804</v>
+      </c>
+      <c r="P28" s="14">
+        <f>Analysis!H30*Default_Risk!N28</f>
+        <v>71605.858264180366</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="14">
+        <f>762004-750253</f>
+        <v>11751</v>
+      </c>
+      <c r="F29" s="16">
+        <v>25</v>
+      </c>
+      <c r="G29" s="17">
+        <f>Analysis!E31</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H29" s="17">
+        <f>Analysis!G31</f>
+        <v>116666.66666666666</v>
+      </c>
+      <c r="I29" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J29" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="K29" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L29" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2268518518518516</v>
+      </c>
+      <c r="M29" s="86">
+        <f t="shared" si="2"/>
+        <v>0.74853934932522503</v>
+      </c>
+      <c r="N29" s="86">
+        <f t="shared" si="2"/>
+        <v>0.73726211731624192</v>
+      </c>
+      <c r="O29" s="14">
+        <f>Analysis!F31*Default_Risk!M29</f>
+        <v>68575.420902514612</v>
+      </c>
+      <c r="P29" s="14">
+        <f>Analysis!H31*Default_Risk!N29</f>
+        <v>69898.13723296106</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="14">
+        <f>3921</f>
+        <v>3921</v>
+      </c>
+      <c r="F30" s="16">
+        <v>26</v>
+      </c>
+      <c r="G30" s="17">
+        <f>Analysis!E32</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H30" s="17">
+        <f>Analysis!G32</f>
+        <v>116261.57407407407</v>
+      </c>
+      <c r="I30" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J30" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38753858024691357</v>
+      </c>
+      <c r="K30" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L30" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2240387088477367</v>
+      </c>
+      <c r="M30" s="86">
+        <f t="shared" si="2"/>
+        <v>0.73956028045947386</v>
+      </c>
+      <c r="N30" s="86">
+        <f t="shared" si="2"/>
+        <v>0.72821700337694539</v>
+      </c>
+      <c r="O30" s="14">
+        <f>Analysis!F32*Default_Risk!M30</f>
+        <v>67192.886913980721</v>
+      </c>
+      <c r="P30" s="14">
+        <f>Analysis!H32*Default_Risk!N30</f>
+        <v>68232.264167450921</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F31" s="16">
+        <v>27</v>
+      </c>
+      <c r="G31" s="17">
+        <f>Analysis!E33</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H31" s="17">
+        <f>Analysis!G33</f>
+        <v>115856.48148148147</v>
+      </c>
+      <c r="I31" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J31" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38618827160493824</v>
+      </c>
+      <c r="K31" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L31" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2212255658436213</v>
+      </c>
+      <c r="M31" s="86">
+        <f t="shared" si="2"/>
+        <v>0.7306889195956715</v>
+      </c>
+      <c r="N31" s="86">
+        <f t="shared" si="2"/>
+        <v>0.71930334537120055</v>
+      </c>
+      <c r="O31" s="14">
+        <f>Analysis!F33*Default_Risk!M31</f>
+        <v>65838.225889320689</v>
+      </c>
+      <c r="P31" s="14">
+        <f>Analysis!H33*Default_Risk!N31</f>
+        <v>66607.181978906694</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F32" s="16">
+        <v>28</v>
+      </c>
+      <c r="G32" s="17">
+        <f>Analysis!E34</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H32" s="17">
+        <f>Analysis!G34</f>
+        <v>115451.38888888889</v>
+      </c>
+      <c r="I32" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J32" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38483796296296297</v>
+      </c>
+      <c r="K32" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L32" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2184124228395063</v>
+      </c>
+      <c r="M32" s="86">
+        <f t="shared" si="2"/>
+        <v>0.72192397472750236</v>
+      </c>
+      <c r="N32" s="86">
+        <f t="shared" si="2"/>
+        <v>0.71051902902155906</v>
+      </c>
+      <c r="O32" s="14">
+        <f>Analysis!F34*Default_Risk!M32</f>
+        <v>64510.875887836119</v>
+      </c>
+      <c r="P32" s="14">
+        <f>Analysis!H34*Default_Risk!N32</f>
+        <v>65021.861096373934</v>
+      </c>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F33" s="16">
+        <v>29</v>
+      </c>
+      <c r="G33" s="17">
+        <f>Analysis!E35</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H33" s="17">
+        <f>Analysis!G35</f>
+        <v>115046.29629629629</v>
+      </c>
+      <c r="I33" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J33" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38348765432098764</v>
+      </c>
+      <c r="K33" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L33" s="86">
+        <f t="shared" si="1"/>
+        <v>1.215599279835391</v>
+      </c>
+      <c r="M33" s="86">
+        <f t="shared" si="2"/>
+        <v>0.71326416934685211</v>
+      </c>
+      <c r="N33" s="86">
+        <f t="shared" si="2"/>
+        <v>0.70186197690532171</v>
+      </c>
+      <c r="O33" s="14">
+        <f>Analysis!F35*Default_Risk!M33</f>
+        <v>63210.286297991493</v>
+      </c>
+      <c r="P33" s="14">
+        <f>Analysis!H35*Default_Risk!N33</f>
+        <v>63475.29872937053</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F34" s="16">
+        <v>30</v>
+      </c>
+      <c r="G34" s="17">
+        <f>Analysis!E36</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H34" s="17">
+        <f>Analysis!G36</f>
+        <v>114641.20370370371</v>
+      </c>
+      <c r="I34" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J34" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38213734567901236</v>
+      </c>
+      <c r="K34" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L34" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2127861368312758</v>
+      </c>
+      <c r="M34" s="86">
+        <f t="shared" si="2"/>
+        <v>0.70470824225790019</v>
+      </c>
+      <c r="N34" s="86">
+        <f t="shared" si="2"/>
+        <v>0.69333014776862223</v>
+      </c>
+      <c r="O34" s="14">
+        <f>Analysis!F36*Default_Risk!M34</f>
+        <v>61935.917609009412</v>
+      </c>
+      <c r="P34" s="14">
+        <f>Analysis!H36*Default_Risk!N34</f>
+        <v>61966.518150874588</v>
+      </c>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F35" s="16">
+        <v>31</v>
+      </c>
+      <c r="G35" s="17">
+        <f>Analysis!E37</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H35" s="17">
+        <f>Analysis!G37</f>
+        <v>114236.11111111111</v>
+      </c>
+      <c r="I35" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J35" s="85">
+        <f t="shared" si="0"/>
+        <v>0.38078703703703703</v>
+      </c>
+      <c r="K35" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L35" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2099729938271604</v>
+      </c>
+      <c r="M35" s="86">
+        <f t="shared" si="2"/>
+        <v>0.69625494739344151</v>
+      </c>
+      <c r="N35" s="86">
+        <f t="shared" si="2"/>
+        <v>0.68492153585401261</v>
+      </c>
+      <c r="O35" s="14">
+        <f>Analysis!F37*Default_Risk!M35</f>
+        <v>60687.241187070744</v>
+      </c>
+      <c r="P35" s="14">
+        <f>Analysis!H37*Default_Risk!N35</f>
+        <v>60494.568000043379</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F36" s="16">
+        <v>32</v>
+      </c>
+      <c r="G36" s="17">
+        <f>Analysis!E38</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H36" s="17">
+        <f>Analysis!G38</f>
+        <v>113831.01851851851</v>
+      </c>
+      <c r="I36" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J36" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37943672839506171</v>
+      </c>
+      <c r="K36" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L36" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2071598508230452</v>
+      </c>
+      <c r="M36" s="86">
+        <f t="shared" si="2"/>
+        <v>0.68790305363341231</v>
+      </c>
+      <c r="N36" s="86">
+        <f t="shared" si="2"/>
+        <v>0.67663417024127281</v>
+      </c>
+      <c r="O36" s="14">
+        <f>Analysis!F38*Default_Risk!M36</f>
+        <v>59463.739056026541</v>
+      </c>
+      <c r="P36" s="14">
+        <f>Analysis!H38*Default_Risk!N36</f>
+        <v>59058.521604105619</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F37" s="16">
+        <v>33</v>
+      </c>
+      <c r="G37" s="17">
+        <f>Analysis!E39</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H37" s="17">
+        <f>Analysis!G39</f>
+        <v>113425.92592592593</v>
+      </c>
+      <c r="I37" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J37" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37808641975308643</v>
+      </c>
+      <c r="K37" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L37" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2043467078189298</v>
+      </c>
+      <c r="M37" s="86">
+        <f t="shared" si="2"/>
+        <v>0.67965134462559196</v>
+      </c>
+      <c r="N37" s="86">
+        <f t="shared" si="2"/>
+        <v>0.66846611420117052</v>
+      </c>
+      <c r="O37" s="14">
+        <f>Analysis!F39*Default_Risk!M37</f>
+        <v>58264.903682531185</v>
+      </c>
+      <c r="P37" s="14">
+        <f>Analysis!H39*Default_Risk!N37</f>
+        <v>57657.476318886402</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F38" s="16">
+        <v>34</v>
+      </c>
+      <c r="G38" s="17">
+        <f>Analysis!E40</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H38" s="17">
+        <f>Analysis!G40</f>
+        <v>113020.83333333333</v>
+      </c>
+      <c r="I38" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J38" s="85">
+        <f t="shared" si="0"/>
+        <v>0.3767361111111111</v>
+      </c>
+      <c r="K38" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L38" s="86">
+        <f t="shared" si="1"/>
+        <v>1.2015335648148147</v>
+      </c>
+      <c r="M38" s="86">
+        <f t="shared" si="2"/>
+        <v>0.67149861860845628</v>
+      </c>
+      <c r="N38" s="86">
+        <f t="shared" si="2"/>
+        <v>0.66041546456190359</v>
+      </c>
+      <c r="O38" s="14">
+        <f>Analysis!F40*Default_Risk!M38</f>
+        <v>57090.237765507271</v>
+      </c>
+      <c r="P38" s="14">
+        <f>Analysis!H40*Default_Risk!N38</f>
+        <v>56290.552887438942</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F39" s="16">
+        <v>35</v>
+      </c>
+      <c r="G39" s="17">
+        <f>Analysis!E41</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H39" s="17">
+        <f>Analysis!G41</f>
+        <v>112615.74074074074</v>
+      </c>
+      <c r="I39" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J39" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37538580246913583</v>
+      </c>
+      <c r="K39" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L39" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1987204218106997</v>
+      </c>
+      <c r="M39" s="86">
+        <f t="shared" si="2"/>
+        <v>0.6634436882361554</v>
+      </c>
+      <c r="N39" s="86">
+        <f t="shared" si="2"/>
+        <v>0.65248035108796465</v>
+      </c>
+      <c r="O39" s="14">
+        <f>Analysis!F41*Default_Risk!M39</f>
+        <v>55939.254029855125</v>
+      </c>
+      <c r="P39" s="14">
+        <f>Analysis!H41*Default_Risk!N39</f>
+        <v>54956.894816273278</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F40" s="16">
+        <v>36</v>
+      </c>
+      <c r="G40" s="17">
+        <f>Analysis!E42</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H40" s="17">
+        <f>Analysis!G42</f>
+        <v>112210.64814814815</v>
+      </c>
+      <c r="I40" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J40" s="85">
+        <f t="shared" si="0"/>
+        <v>0.3740354938271605</v>
+      </c>
+      <c r="K40" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L40" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1959072788065845</v>
+      </c>
+      <c r="M40" s="86">
+        <f t="shared" si="2"/>
+        <v>0.65548538040559123</v>
+      </c>
+      <c r="N40" s="86">
+        <f t="shared" si="2"/>
+        <v>0.64465893587117107</v>
+      </c>
+      <c r="O40" s="14">
+        <f>Analysis!F42*Default_Risk!M40</f>
+        <v>54811.475024321233</v>
+      </c>
+      <c r="P40" s="14">
+        <f>Analysis!H42*Default_Risk!N40</f>
+        <v>53655.66776868602</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F41" s="16">
+        <v>37</v>
+      </c>
+      <c r="G41" s="17">
+        <f>Analysis!E43</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H41" s="17">
+        <f>Analysis!G43</f>
+        <v>111805.55555555555</v>
+      </c>
+      <c r="I41" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J41" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37268518518518517</v>
+      </c>
+      <c r="K41" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L41" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1930941358024689</v>
+      </c>
+      <c r="M41" s="86">
+        <f t="shared" si="2"/>
+        <v>0.64762253608556908</v>
+      </c>
+      <c r="N41" s="86">
+        <f t="shared" si="2"/>
+        <v>0.63694941273361061</v>
+      </c>
+      <c r="O41" s="14">
+        <f>Analysis!F43*Default_Risk!M41</f>
+        <v>53706.432923441876</v>
+      </c>
+      <c r="P41" s="14">
+        <f>Analysis!H43*Default_Risk!N41</f>
+        <v>52386.058974710337</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F42" s="16">
+        <v>38</v>
+      </c>
+      <c r="G42" s="17">
+        <f>Analysis!E44</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H42" s="17">
+        <f>Analysis!G44</f>
+        <v>111400.46296296296</v>
+      </c>
+      <c r="I42" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J42" s="85">
+        <f t="shared" si="0"/>
+        <v>0.3713348765432099</v>
+      </c>
+      <c r="K42" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L42" s="86">
+        <f t="shared" si="1"/>
+        <v>1.190280992798354</v>
+      </c>
+      <c r="M42" s="86">
+        <f t="shared" si="2"/>
+        <v>0.63985401014799914</v>
+      </c>
+      <c r="N42" s="86">
+        <f t="shared" si="2"/>
+        <v>0.62935000664225771</v>
+      </c>
+      <c r="O42" s="14">
+        <f>Analysis!F44*Default_Risk!M42</f>
+        <v>52623.669333479687</v>
+      </c>
+      <c r="P42" s="14">
+        <f>Analysis!H44*Default_Risk!N42</f>
+        <v>51147.276657218426</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F43" s="16">
+        <v>39</v>
+      </c>
+      <c r="G43" s="17">
+        <f>Analysis!E45</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H43" s="17">
+        <f>Analysis!G45</f>
+        <v>110995.37037037036</v>
+      </c>
+      <c r="I43" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J43" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36998456790123457</v>
+      </c>
+      <c r="K43" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L43" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1874678497942386</v>
+      </c>
+      <c r="M43" s="86">
+        <f t="shared" si="2"/>
+        <v>0.63217867120112203</v>
+      </c>
+      <c r="N43" s="86">
+        <f t="shared" si="2"/>
+        <v>0.6218589731350197</v>
+      </c>
+      <c r="O43" s="14">
+        <f>Analysis!F45*Default_Risk!M43</f>
+        <v>51562.735102272716</v>
+      </c>
+      <c r="P43" s="14">
+        <f>Analysis!H45*Default_Risk!N43</f>
+        <v>49938.549473722851</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F44" s="16">
+        <v>40</v>
+      </c>
+      <c r="G44" s="17">
+        <f>Analysis!E46</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H44" s="17">
+        <f>Analysis!G46</f>
+        <v>110590.27777777778</v>
+      </c>
+      <c r="I44" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J44" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36863425925925924</v>
+      </c>
+      <c r="K44" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L44" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1846547067901234</v>
+      </c>
+      <c r="M44" s="86">
+        <f t="shared" si="2"/>
+        <v>0.62459540142473557</v>
+      </c>
+      <c r="N44" s="86">
+        <f t="shared" si="2"/>
+        <v>0.61447459775798074</v>
+      </c>
+      <c r="O44" s="14">
+        <f>Analysis!F46*Default_Risk!M44</f>
+        <v>50523.190132916956</v>
+      </c>
+      <c r="P44" s="14">
+        <f>Analysis!H46*Default_Risk!N44</f>
+        <v>48759.125973435905</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F45" s="16">
+        <v>41</v>
+      </c>
+      <c r="G45" s="17">
+        <f>Analysis!E47</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H45" s="17">
+        <f>Analysis!G47</f>
+        <v>110185.18518518518</v>
+      </c>
+      <c r="I45" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J45" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36728395061728392</v>
+      </c>
+      <c r="K45" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L45" s="86">
+        <f t="shared" si="1"/>
+        <v>1.181841563786008</v>
+      </c>
+      <c r="M45" s="86">
+        <f t="shared" si="2"/>
+        <v>0.61710309640739769</v>
+      </c>
+      <c r="N45" s="86">
+        <f t="shared" si="2"/>
+        <v>0.60719519551361112</v>
+      </c>
+      <c r="O45" s="14">
+        <f>Analysis!F47*Default_Risk!M45</f>
+        <v>49504.603201205449</v>
+      </c>
+      <c r="P45" s="14">
+        <f>Analysis!H47*Default_Risk!N45</f>
+        <v>47608.27406915887</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F46" s="16">
+        <v>42</v>
+      </c>
+      <c r="G46" s="17">
+        <f>Analysis!E48</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H46" s="17">
+        <f>Analysis!G48</f>
+        <v>109780.09259259258</v>
+      </c>
+      <c r="I46" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J46" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36593364197530859</v>
+      </c>
+      <c r="K46" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L46" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1790284207818926</v>
+      </c>
+      <c r="M46" s="86">
+        <f t="shared" si="2"/>
+        <v>0.60970066498558229</v>
+      </c>
+      <c r="N46" s="86">
+        <f t="shared" si="2"/>
+        <v>0.60001911031971955</v>
+      </c>
+      <c r="O46" s="14">
+        <f>Analysis!F48*Default_Risk!M46</f>
+        <v>48506.551776747598</v>
+      </c>
+      <c r="P46" s="14">
+        <f>Analysis!H48*Default_Risk!N46</f>
+        <v>46485.280523585338</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F47" s="16">
+        <v>43</v>
+      </c>
+      <c r="G47" s="17">
+        <f>Analysis!E49</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H47" s="17">
+        <f>Analysis!G49</f>
+        <v>109375</v>
+      </c>
+      <c r="I47" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J47" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="K47" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L47" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1762152777777777</v>
+      </c>
+      <c r="M47" s="86">
+        <f t="shared" si="2"/>
+        <v>0.60238702908476438</v>
+      </c>
+      <c r="N47" s="86">
+        <f t="shared" si="2"/>
+        <v>0.59294471447892738</v>
+      </c>
+      <c r="O47" s="14">
+        <f>Analysis!F49*Default_Risk!M47</f>
+        <v>47528.621847695234</v>
+      </c>
+      <c r="P47" s="14">
+        <f>Analysis!H49*Default_Risk!N47</f>
+        <v>45389.450449614822</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F48" s="16">
+        <v>44</v>
+      </c>
+      <c r="G48" s="17">
+        <f>Analysis!E50</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H48" s="17">
+        <f>Analysis!G50</f>
+        <v>108969.9074074074</v>
+      </c>
+      <c r="I48" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J48" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36323302469135799</v>
+      </c>
+      <c r="K48" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L48" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1734021347736625</v>
+      </c>
+      <c r="M48" s="86">
+        <f t="shared" si="2"/>
+        <v>0.5951611235624118</v>
+      </c>
+      <c r="N48" s="86">
+        <f t="shared" si="2"/>
+        <v>0.58597040815845036</v>
+      </c>
+      <c r="O48" s="14">
+        <f>Analysis!F50*Default_Risk!M48</f>
+        <v>46570.407749001977</v>
+      </c>
+      <c r="P48" s="14">
+        <f>Analysis!H50*Default_Risk!N48</f>
+        <v>44320.10682428423</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F49" s="16">
+        <v>45</v>
+      </c>
+      <c r="G49" s="17">
+        <f>Analysis!E51</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H49" s="17">
+        <f>Analysis!G51</f>
+        <v>108564.8148148148</v>
+      </c>
+      <c r="I49" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J49" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36188271604938266</v>
+      </c>
+      <c r="K49" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L49" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1705889917695473</v>
+      </c>
+      <c r="M49" s="86">
+        <f t="shared" si="2"/>
+        <v>0.58802189605285993</v>
+      </c>
+      <c r="N49" s="86">
+        <f t="shared" si="2"/>
+        <v>0.57909461887997715</v>
+      </c>
+      <c r="O49" s="14">
+        <f>Analysis!F51*Default_Risk!M49</f>
+        <v>45631.511994145359</v>
+      </c>
+      <c r="P49" s="14">
+        <f>Analysis!H51*Default_Risk!N49</f>
+        <v>43276.590015936577</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F50" s="16">
+        <v>46</v>
+      </c>
+      <c r="G50" s="17">
+        <f>Analysis!E52</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H50" s="17">
+        <f>Analysis!G52</f>
+        <v>108159.72222222222</v>
+      </c>
+      <c r="I50" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J50" s="85">
+        <f t="shared" si="0"/>
+        <v>0.36053240740740738</v>
+      </c>
+      <c r="K50" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L50" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1677758487654322</v>
+      </c>
+      <c r="M50" s="86">
+        <f t="shared" si="2"/>
+        <v>0.58096830681404732</v>
+      </c>
+      <c r="N50" s="86">
+        <f t="shared" si="2"/>
+        <v>0.57231580101943835</v>
+      </c>
+      <c r="O50" s="14">
+        <f>Analysis!F52*Default_Risk!M50</f>
+        <v>44711.545110241255</v>
+      </c>
+      <c r="P50" s="14">
+        <f>Analysis!H52*Default_Risk!N50</f>
+        <v>42258.257324256359</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F51" s="16">
+        <v>47</v>
+      </c>
+      <c r="G51" s="17">
+        <f>Analysis!E53</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H51" s="17">
+        <f>Analysis!G53</f>
+        <v>107754.62962962964</v>
+      </c>
+      <c r="I51" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J51" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35918209876543211</v>
+      </c>
+      <c r="K51" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L51" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1649627057613168</v>
+      </c>
+      <c r="M51" s="86">
+        <f t="shared" si="2"/>
+        <v>0.57399932857609004</v>
+      </c>
+      <c r="N51" s="86">
+        <f t="shared" si="2"/>
+        <v>0.5656324353164649</v>
+      </c>
+      <c r="O51" s="14">
+        <f>Analysis!F53*Default_Risk!M51</f>
+        <v>43810.125476482826</v>
+      </c>
+      <c r="P51" s="14">
+        <f>Analysis!H53*Default_Risk!N51</f>
+        <v>41264.482532812588</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F52" s="16">
+        <v>48</v>
+      </c>
+      <c r="G52" s="17">
+        <f>Analysis!E54</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H52" s="17">
+        <f>Analysis!G54</f>
+        <v>107349.53703703704</v>
+      </c>
+      <c r="I52" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J52" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35783179012345678</v>
+      </c>
+      <c r="K52" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L52" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1621495627572016</v>
+      </c>
+      <c r="M52" s="86">
+        <f t="shared" si="2"/>
+        <v>0.56711394639167223</v>
+      </c>
+      <c r="N52" s="86">
+        <f t="shared" si="2"/>
+        <v>0.55904302839333853</v>
+      </c>
+      <c r="O52" s="14">
+        <f>Analysis!F54*Default_Risk!M52</f>
+        <v>42926.879165836406</v>
+      </c>
+      <c r="P52" s="14">
+        <f>Analysis!H54*Default_Risk!N52</f>
+        <v>40294.655473760067</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F53" s="16">
+        <v>49</v>
+      </c>
+      <c r="G53" s="17">
+        <f>Analysis!E55</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H53" s="17">
+        <f>Analysis!G55</f>
+        <v>106944.44444444444</v>
+      </c>
+      <c r="I53" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J53" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35648148148148145</v>
+      </c>
+      <c r="K53" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L53" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1593364197530864</v>
+      </c>
+      <c r="M53" s="86">
+        <f t="shared" si="2"/>
+        <v>0.56031115748823102</v>
+      </c>
+      <c r="N53" s="86">
+        <f t="shared" si="2"/>
+        <v>0.5525461122832408</v>
+      </c>
+      <c r="O53" s="14">
+        <f>Analysis!F55*Default_Risk!M53</f>
+        <v>42061.439789929049</v>
+      </c>
+      <c r="P53" s="14">
+        <f>Analysis!H55*Default_Risk!N53</f>
+        <v>39348.181604359823</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F54" s="16">
+        <v>50</v>
+      </c>
+      <c r="G54" s="17">
+        <f>Analysis!E56</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H54" s="17">
+        <f>Analysis!G56</f>
+        <v>106539.35185185185</v>
+      </c>
+      <c r="I54" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J54" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35513117283950618</v>
+      </c>
+      <c r="K54" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L54" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1565232767489713</v>
+      </c>
+      <c r="M54" s="86">
+        <f t="shared" si="2"/>
+        <v>0.55358997112191521</v>
+      </c>
+      <c r="N54" s="86">
+        <f t="shared" si="2"/>
+        <v>0.54614024396761141</v>
+      </c>
+      <c r="O54" s="14">
+        <f>Analysis!F56*Default_Risk!M54</f>
+        <v>41213.448347063299</v>
+      </c>
+      <c r="P54" s="14">
+        <f>Analysis!H56*Default_Risk!N54</f>
+        <v>38424.481594989113</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F55" s="16">
+        <v>51</v>
+      </c>
+      <c r="G55" s="17">
+        <f>Analysis!E57</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H55" s="17">
+        <f>Analysis!G57</f>
+        <v>106134.25925925926</v>
+      </c>
+      <c r="I55" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J55" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35378086419753085</v>
+      </c>
+      <c r="K55" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L55" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1537101337448559</v>
+      </c>
+      <c r="M55" s="86">
+        <f t="shared" si="2"/>
+        <v>0.54694940843329531</v>
+      </c>
+      <c r="N55" s="86">
+        <f t="shared" si="2"/>
+        <v>0.53982400492243243</v>
+      </c>
+      <c r="O55" s="14">
+        <f>Analysis!F57*Default_Risk!M55</f>
+        <v>40382.553073296018</v>
+      </c>
+      <c r="P55" s="14">
+        <f>Analysis!H57*Default_Risk!N55</f>
+        <v>37522.990928321189</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F56" s="16">
+        <v>52</v>
+      </c>
+      <c r="G56" s="17">
+        <f>Analysis!E58</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H56" s="17">
+        <f>Analysis!G58</f>
+        <v>105729.16666666667</v>
+      </c>
+      <c r="I56" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J56" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35243055555555558</v>
+      </c>
+      <c r="K56" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L56" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1508969907407407</v>
+      </c>
+      <c r="M56" s="86">
+        <f t="shared" si="2"/>
+        <v>0.54038850230480451</v>
+      </c>
+      <c r="N56" s="86">
+        <f t="shared" si="2"/>
+        <v>0.53359600067325497</v>
+      </c>
+      <c r="O56" s="14">
+        <f>Analysis!F58*Default_Risk!M56</f>
+        <v>39568.409296519611</v>
+      </c>
+      <c r="P56" s="14">
+        <f>Analysis!H58*Default_Risk!N56</f>
+        <v>36643.159509363635</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F57" s="16">
+        <v>53</v>
+      </c>
+      <c r="G57" s="17">
+        <f>Analysis!E59</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H57" s="17">
+        <f>Analysis!G59</f>
+        <v>105324.07407407407</v>
+      </c>
+      <c r="I57" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J57" s="85">
+        <f t="shared" si="0"/>
+        <v>0.35108024691358025</v>
+      </c>
+      <c r="K57" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L57" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1480838477366255</v>
+      </c>
+      <c r="M57" s="86">
+        <f t="shared" si="2"/>
+        <v>0.53390629721988947</v>
+      </c>
+      <c r="N57" s="86">
+        <f t="shared" si="2"/>
+        <v>0.52745486035879352</v>
+      </c>
+      <c r="O57" s="14">
+        <f>Analysis!F59*Default_Risk!M57</f>
+        <v>38770.679293485053</v>
+      </c>
+      <c r="P57" s="14">
+        <f>Analysis!H59*Default_Risk!N57</f>
+        <v>35784.45128605335</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F58" s="16">
+        <v>54</v>
+      </c>
+      <c r="G58" s="17">
+        <f>Analysis!E60</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H58" s="17">
+        <f>Analysis!G60</f>
+        <v>104918.98148148147</v>
+      </c>
+      <c r="I58" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J58" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34972993827160492</v>
+      </c>
+      <c r="K58" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L58" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1452707047325101</v>
+      </c>
+      <c r="M58" s="86">
+        <f t="shared" si="2"/>
+        <v>0.52750184912385134</v>
+      </c>
+      <c r="N58" s="86">
+        <f t="shared" si="2"/>
+        <v>0.52139923630291241</v>
+      </c>
+      <c r="O58" s="14">
+        <f>Analysis!F60*Default_Risk!M58</f>
+        <v>37989.032149707549</v>
+      </c>
+      <c r="P58" s="14">
+        <f>Analysis!H60*Default_Risk!N58</f>
+        <v>34946.343880114851</v>
+      </c>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F59" s="16">
+        <v>55</v>
+      </c>
+      <c r="G59" s="17">
+        <f>Analysis!E61</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H59" s="17">
+        <f>Analysis!G61</f>
+        <v>104513.88888888889</v>
+      </c>
+      <c r="I59" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J59" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34837962962962965</v>
+      </c>
+      <c r="K59" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L59" s="86">
+        <f t="shared" si="1"/>
+        <v>1.142457561728395</v>
+      </c>
+      <c r="M59" s="86">
+        <f t="shared" si="2"/>
+        <v>0.52117422528635526</v>
+      </c>
+      <c r="N59" s="86">
+        <f t="shared" si="2"/>
+        <v>0.51542780359483609</v>
+      </c>
+      <c r="O59" s="14">
+        <f>Analysis!F61*Default_Risk!M59</f>
+        <v>37223.143622196505</v>
+      </c>
+      <c r="P59" s="14">
+        <f>Analysis!H61*Default_Risk!N59</f>
+        <v>34128.328227896694</v>
+      </c>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F60" s="16">
+        <v>56</v>
+      </c>
+      <c r="G60" s="17">
+        <f>Analysis!E62</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H60" s="17">
+        <f>Analysis!G62</f>
+        <v>104108.79629629629</v>
+      </c>
+      <c r="I60" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J60" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34702932098765432</v>
+      </c>
+      <c r="K60" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L60" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1396444187242796</v>
+      </c>
+      <c r="M60" s="86">
+        <f t="shared" si="2"/>
+        <v>0.5149225041655896</v>
+      </c>
+      <c r="N60" s="86">
+        <f t="shared" si="2"/>
+        <v>0.50953925967741631</v>
+      </c>
+      <c r="O60" s="14">
+        <f>Analysis!F62*Default_Risk!M60</f>
+        <v>36472.696004952966</v>
+      </c>
+      <c r="P60" s="14">
+        <f>Analysis!H62*Default_Risk!N60</f>
+        <v>33329.908230908928</v>
+      </c>
+    </row>
+    <row r="61" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F61" s="16">
+        <v>57</v>
+      </c>
+      <c r="G61" s="17">
+        <f>Analysis!E63</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H61" s="17">
+        <f>Analysis!G63</f>
+        <v>103703.70370370371</v>
+      </c>
+      <c r="I61" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J61" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34567901234567905</v>
+      </c>
+      <c r="K61" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L61" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1368312757201646</v>
+      </c>
+      <c r="M61" s="86">
+        <f t="shared" si="2"/>
+        <v>0.50874577527405473</v>
+      </c>
+      <c r="N61" s="86">
+        <f t="shared" si="2"/>
+        <v>0.50373232394329359</v>
+      </c>
+      <c r="O61" s="14">
+        <f>Analysis!F63*Default_Risk!M61</f>
+        <v>35737.377997178803</v>
+      </c>
+      <c r="P61" s="14">
+        <f>Analysis!H63*Default_Risk!N61</f>
+        <v>32550.60041579304</v>
+      </c>
+    </row>
+    <row r="62" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F62" s="16">
+        <v>58</v>
+      </c>
+      <c r="G62" s="17">
+        <f>Analysis!E64</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H62" s="17">
+        <f>Analysis!G64</f>
+        <v>103298.61111111111</v>
+      </c>
+      <c r="I62" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J62" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34432870370370372</v>
+      </c>
+      <c r="K62" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L62" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1340181327160495</v>
+      </c>
+      <c r="M62" s="86">
+        <f t="shared" si="2"/>
+        <v>0.50264313904596114</v>
+      </c>
+      <c r="N62" s="86">
+        <f t="shared" si="2"/>
+        <v>0.49800573733879422</v>
+      </c>
+      <c r="O62" s="14">
+        <f>Analysis!F64*Default_Risk!M62</f>
+        <v>35016.884574142859</v>
+      </c>
+      <c r="P62" s="14">
+        <f>Analysis!H64*Default_Risk!N62</f>
+        <v>31789.933603462265</v>
+      </c>
+    </row>
+    <row r="63" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F63" s="16">
+        <v>59</v>
+      </c>
+      <c r="G63" s="17">
+        <f>Analysis!E65</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H63" s="17">
+        <f>Analysis!G65</f>
+        <v>102893.51851851851</v>
+      </c>
+      <c r="I63" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J63" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34297839506172839</v>
+      </c>
+      <c r="K63" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L63" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1312049897119341</v>
+      </c>
+      <c r="M63" s="86">
+        <f t="shared" si="2"/>
+        <v>0.49661370670621907</v>
+      </c>
+      <c r="N63" s="86">
+        <f t="shared" si="2"/>
+        <v>0.492358261975406</v>
+      </c>
+      <c r="O63" s="14">
+        <f>Analysis!F65*Default_Risk!M63</f>
+        <v>34310.916860650555</v>
+      </c>
+      <c r="P63" s="14">
+        <f>Analysis!H65*Default_Risk!N63</f>
+        <v>31047.448587158902</v>
+      </c>
+    </row>
+    <row r="64" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F64" s="16">
+        <v>60</v>
+      </c>
+      <c r="G64" s="17">
+        <f>Analysis!E66</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H64" s="17">
+        <f>Analysis!G66</f>
+        <v>102488.42592592593</v>
+      </c>
+      <c r="I64" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J64" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34162808641975306</v>
+      </c>
+      <c r="K64" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L64" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1283918467078189</v>
+      </c>
+      <c r="M64" s="86">
+        <f t="shared" si="2"/>
+        <v>0.49065660014099871</v>
+      </c>
+      <c r="N64" s="86">
+        <f t="shared" si="2"/>
+        <v>0.48678868074868126</v>
+      </c>
+      <c r="O64" s="14">
+        <f>Analysis!F66*Default_Risk!M64</f>
+        <v>33619.182007064403</v>
+      </c>
+      <c r="P64" s="14">
+        <f>Analysis!H66*Default_Risk!N64</f>
+        <v>30322.697819181496</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F65" s="16">
+        <v>61</v>
+      </c>
+      <c r="G65" s="17">
+        <f>Analysis!E67</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H65" s="17">
+        <f>Analysis!G67</f>
+        <v>102083.33333333333</v>
+      </c>
+      <c r="I65" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J65" s="85">
+        <f t="shared" si="0"/>
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="K65" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L65" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1255787037037035</v>
+      </c>
+      <c r="M65" s="86">
+        <f t="shared" si="2"/>
+        <v>0.48477095176984381</v>
+      </c>
+      <c r="N65" s="86">
+        <f t="shared" si="2"/>
+        <v>0.48129579696441654</v>
+      </c>
+      <c r="O65" s="14">
+        <f>Analysis!F67*Default_Risk!M65</f>
+        <v>32941.393067824079</v>
+      </c>
+      <c r="P65" s="14">
+        <f>Analysis!H67*Default_Risk!N65</f>
+        <v>29615.245106042181</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F66" s="16">
+        <v>62</v>
+      </c>
+      <c r="G66" s="17">
+        <f>Analysis!E68</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H66" s="17">
+        <f>Analysis!G68</f>
+        <v>101678.24074074074</v>
+      </c>
+      <c r="I66" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J66" s="85">
+        <f t="shared" si="0"/>
+        <v>0.33892746913580246</v>
+      </c>
+      <c r="K66" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L66" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1227655606995883</v>
+      </c>
+      <c r="M66" s="86">
+        <f t="shared" si="2"/>
+        <v>0.47895590441931907</v>
+      </c>
+      <c r="N66" s="86">
+        <f t="shared" si="2"/>
+        <v>0.47587843397196405</v>
+      </c>
+      <c r="O66" s="14">
+        <f>Analysis!F68*Default_Risk!M66</f>
+        <v>32277.268882415665</v>
+      </c>
+      <c r="P66" s="14">
+        <f>Analysis!H68*Default_Risk!N66</f>
+        <v>28924.665311821358</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F67" s="16">
+        <v>63</v>
+      </c>
+      <c r="G67" s="17">
+        <f>Analysis!E69</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H67" s="17">
+        <f>Analysis!G69</f>
+        <v>101273.14814814815</v>
+      </c>
+      <c r="I67" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J67" s="85">
+        <f t="shared" si="0"/>
+        <v>0.33757716049382713</v>
+      </c>
+      <c r="K67" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L67" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1199524176954732</v>
+      </c>
+      <c r="M67" s="86">
+        <f t="shared" si="2"/>
+        <v>0.47321061119817315</v>
+      </c>
+      <c r="N67" s="86">
+        <f t="shared" si="2"/>
+        <v>0.47053543480453031</v>
+      </c>
+      <c r="O67" s="14">
+        <f>Analysis!F69*Default_Risk!M67</f>
+        <v>31626.533958740551</v>
+      </c>
+      <c r="P67" s="14">
+        <f>Analysis!H69*Default_Risk!N67</f>
+        <v>28250.544069493215</v>
+      </c>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F68" s="16">
+        <v>64</v>
+      </c>
+      <c r="G68" s="17">
+        <f>Analysis!E70</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H68" s="17">
+        <f>Analysis!G70</f>
+        <v>100868.05555555555</v>
+      </c>
+      <c r="I68" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J68" s="85">
+        <f t="shared" si="0"/>
+        <v>0.3362268518518518</v>
+      </c>
+      <c r="K68" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L68" s="86">
+        <f t="shared" si="1"/>
+        <v>1.117139274691358</v>
+      </c>
+      <c r="M68" s="86">
+        <f t="shared" si="2"/>
+        <v>0.46753423537399924</v>
+      </c>
+      <c r="N68" s="86">
+        <f t="shared" si="2"/>
+        <v>0.46526566182632306</v>
+      </c>
+      <c r="O68" s="14">
+        <f>Analysis!F70*Default_Risk!M68</f>
+        <v>30988.918358835759</v>
+      </c>
+      <c r="P68" s="14">
+        <f>Analysis!H70*Default_Risk!N68</f>
+        <v>27592.477500002082</v>
+      </c>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F69" s="16">
+        <v>65</v>
+      </c>
+      <c r="G69" s="17">
+        <f>Analysis!E71</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H69" s="17">
+        <f>Analysis!G71</f>
+        <v>100462.96296296296</v>
+      </c>
+      <c r="I69" s="85">
+        <f t="shared" si="0"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J69" s="85">
+        <f t="shared" si="0"/>
+        <v>0.33487654320987653</v>
+      </c>
+      <c r="K69" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L69" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1143261316872428</v>
+      </c>
+      <c r="M69" s="86">
+        <f t="shared" si="2"/>
+        <v>0.46192595025137506</v>
+      </c>
+      <c r="N69" s="86">
+        <f t="shared" si="2"/>
+        <v>0.46006799638640855</v>
+      </c>
+      <c r="O69" s="14">
+        <f>Analysis!F71*Default_Risk!M69</f>
+        <v>30364.157586898287</v>
+      </c>
+      <c r="P69" s="14">
+        <f>Analysis!H71*Default_Risk!N69</f>
+        <v>26950.071938876106</v>
+      </c>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F70" s="16">
+        <v>66</v>
+      </c>
+      <c r="G70" s="17">
+        <f>Analysis!E72</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H70" s="17">
+        <f>Analysis!G72</f>
+        <v>100057.87037037036</v>
+      </c>
+      <c r="I70" s="85">
+        <f t="shared" ref="I70:J76" si="3">G70/$D$4</f>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J70" s="85">
+        <f t="shared" si="3"/>
+        <v>0.3335262345679012</v>
+      </c>
+      <c r="K70" s="86">
+        <f t="shared" ref="K70:L76" si="4">(($D$5/1200)*(1+$D$6*I70))*100</f>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L70" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1115129886831274</v>
+      </c>
+      <c r="M70" s="86">
+        <f t="shared" si="2"/>
+        <v>0.45638493905146477</v>
+      </c>
+      <c r="N70" s="86">
+        <f t="shared" si="2"/>
+        <v>0.45494133847914492</v>
+      </c>
+      <c r="O70" s="14">
+        <f>Analysis!F72*Default_Risk!M70</f>
+        <v>29751.992479566848</v>
+      </c>
+      <c r="P70" s="14">
+        <f>Analysis!H72*Default_Risk!N70</f>
+        <v>26322.943670170287</v>
+      </c>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F71" s="16">
+        <v>67</v>
+      </c>
+      <c r="G71" s="17">
+        <f>Analysis!E73</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H71" s="17">
+        <f>Analysis!G73</f>
+        <v>99652.777777777781</v>
+      </c>
+      <c r="I71" s="85">
+        <f t="shared" si="3"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J71" s="85">
+        <f t="shared" si="3"/>
+        <v>0.33217592592592593</v>
+      </c>
+      <c r="K71" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L71" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1086998456790125</v>
+      </c>
+      <c r="M71" s="86">
+        <f t="shared" ref="M71:N76" si="5">M70*(1-K70/100)</f>
+        <v>0.45091039479306494</v>
+      </c>
+      <c r="N71" s="86">
+        <f t="shared" si="5"/>
+        <v>0.44988460641106037</v>
+      </c>
+      <c r="O71" s="14">
+        <f>Analysis!F73*Default_Risk!M71</f>
+        <v>29152.169098415754</v>
+      </c>
+      <c r="P71" s="14">
+        <f>Analysis!H73*Default_Risk!N71</f>
+        <v>25710.718667537301</v>
+      </c>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F72" s="16">
+        <v>68</v>
+      </c>
+      <c r="G72" s="17">
+        <f>Analysis!E74</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H72" s="17">
+        <f>Analysis!G74</f>
+        <v>99247.685185185182</v>
+      </c>
+      <c r="I72" s="85">
+        <f t="shared" si="3"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J72" s="85">
+        <f t="shared" si="3"/>
+        <v>0.3308256172839506</v>
+      </c>
+      <c r="K72" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L72" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1058867026748971</v>
+      </c>
+      <c r="M72" s="86">
+        <f t="shared" si="5"/>
+        <v>0.4455015201750776</v>
+      </c>
+      <c r="N72" s="86">
+        <f t="shared" si="5"/>
+        <v>0.44489673647404732</v>
+      </c>
+      <c r="O72" s="14">
+        <f>Analysis!F74*Default_Risk!M72</f>
+        <v>28564.438624616076</v>
+      </c>
+      <c r="P72" s="14">
+        <f>Analysis!H74*Default_Risk!N72</f>
+        <v>25113.032342229795</v>
+      </c>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F73" s="16">
+        <v>69</v>
+      </c>
+      <c r="G73" s="17">
+        <f>Analysis!E75</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H73" s="17">
+        <f>Analysis!G75</f>
+        <v>98842.592592592584</v>
+      </c>
+      <c r="I73" s="85">
+        <f t="shared" si="3"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J73" s="85">
+        <f t="shared" si="3"/>
+        <v>0.32947530864197527</v>
+      </c>
+      <c r="K73" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L73" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1030735596707819</v>
+      </c>
+      <c r="M73" s="86">
+        <f t="shared" si="5"/>
+        <v>0.44015752746039288</v>
+      </c>
+      <c r="N73" s="86">
+        <f t="shared" si="5"/>
+        <v>0.43997668262474626</v>
+      </c>
+      <c r="O73" s="14">
+        <f>Analysis!F75*Default_Risk!M73</f>
+        <v>27988.557255720625</v>
+      </c>
+      <c r="P73" s="14">
+        <f>Analysis!H75*Default_Risk!N73</f>
+        <v>24529.529297843736</v>
+      </c>
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F74" s="16">
+        <v>70</v>
+      </c>
+      <c r="G74" s="17">
+        <f>Analysis!E76</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H74" s="17">
+        <f>Analysis!G76</f>
+        <v>98437.5</v>
+      </c>
+      <c r="I74" s="85">
+        <f t="shared" si="3"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J74" s="85">
+        <f t="shared" si="3"/>
+        <v>0.328125</v>
+      </c>
+      <c r="K74" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L74" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1002604166666665</v>
+      </c>
+      <c r="M74" s="86">
+        <f t="shared" si="5"/>
+        <v>0.43487763836116466</v>
+      </c>
+      <c r="N74" s="86">
+        <f t="shared" si="5"/>
+        <v>0.43512341616999606</v>
+      </c>
+      <c r="O74" s="14">
+        <f>Analysis!F76*Default_Risk!M74</f>
+        <v>27424.286104529743</v>
+      </c>
+      <c r="P74" s="14">
+        <f>Analysis!H76*Default_Risk!N74</f>
+        <v>23959.863091617459</v>
+      </c>
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F75" s="16">
+        <v>71</v>
+      </c>
+      <c r="G75" s="17">
+        <f>Analysis!E77</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H75" s="17">
+        <f>Analysis!G77</f>
+        <v>98032.407407407401</v>
+      </c>
+      <c r="I75" s="85">
+        <f t="shared" si="3"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J75" s="85">
+        <f t="shared" si="3"/>
+        <v>0.32677469135802467</v>
+      </c>
+      <c r="K75" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L75" s="86">
+        <f t="shared" si="4"/>
+        <v>1.0974472736625516</v>
+      </c>
+      <c r="M75" s="86">
+        <f t="shared" si="5"/>
+        <v>0.42966108392546248</v>
+      </c>
+      <c r="N75" s="86">
+        <f t="shared" si="5"/>
+        <v>0.43033592545822985</v>
+      </c>
+      <c r="O75" s="14">
+        <f>Analysis!F77*Default_Risk!M75</f>
+        <v>26871.391099996137</v>
+      </c>
+      <c r="P75" s="14">
+        <f>Analysis!H77*Default_Risk!N75</f>
+        <v>23403.696002106539</v>
+      </c>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F76" s="16">
+        <v>72</v>
+      </c>
+      <c r="G76" s="17">
+        <f>Analysis!E78</f>
+        <v>112734.52863015613</v>
+      </c>
+      <c r="H76" s="17">
+        <f>Analysis!G78</f>
+        <v>97627.314814814818</v>
+      </c>
+      <c r="I76" s="85">
+        <f t="shared" si="3"/>
+        <v>0.37578176210052044</v>
+      </c>
+      <c r="J76" s="85">
+        <f t="shared" si="3"/>
+        <v>0.3254243827160494</v>
+      </c>
+      <c r="K76" s="86">
+        <f t="shared" si="4"/>
+        <v>1.1995453377094174</v>
+      </c>
+      <c r="L76" s="86">
+        <f t="shared" si="4"/>
+        <v>1.0946341306584362</v>
+      </c>
+      <c r="M76" s="86">
+        <f t="shared" si="5"/>
+        <v>0.42450710442528283</v>
+      </c>
+      <c r="N76" s="86">
+        <f t="shared" si="5"/>
+        <v>0.42561321557669796</v>
+      </c>
+      <c r="O76" s="14">
+        <f>Analysis!F78*Default_Risk!M76</f>
+        <v>26329.642890127405</v>
+      </c>
+      <c r="P76" s="14">
+        <f>Analysis!H78*Default_Risk!N76</f>
+        <v>22860.698803059477</v>
+      </c>
+    </row>
+    <row r="77" spans="6:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F77" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="89">
+        <f t="shared" ref="G77:H77" si="6">SUM(G5:G76)</f>
+        <v>8116886.061371238</v>
+      </c>
+      <c r="H77" s="89">
+        <f t="shared" si="6"/>
+        <v>8064583.333333333</v>
+      </c>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89">
+        <f>SUM(O5:O76)</f>
+        <v>4265907.4040690353</v>
+      </c>
+      <c r="P77" s="89">
+        <f>SUM(P5:P76)</f>
+        <v>4323975.1708061984</v>
+      </c>
+      <c r="Q77" s="87"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>